--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianqing/Documents/Teaching/CSC573_Spring25/Projects/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0c513644393d52d/^NEdu/2024-2026 NCSU/Sem 2/IP/Projects/ncsu-ip-p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE51764-D684-4B4F-B379-1521C05A58DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{FDE51764-D684-4B4F-B379-1521C05A58DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48B0ED8-B96B-4458-A9BC-1A4A835F8FCD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -492,33 +503,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,6 +596,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,156 +908,228 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="10" customWidth="1"/>
-    <col min="10" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="17" width="9.1640625" customWidth="1"/>
+    <col min="10" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="17" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="28" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="B4" s="32">
+        <v>9827.463639666219</v>
+      </c>
+      <c r="C4" s="33">
+        <v>3817.4951773066332</v>
+      </c>
+      <c r="D4" s="33">
+        <v>73611.763668766012</v>
+      </c>
+      <c r="E4" s="33">
+        <v>30069.905299915819</v>
+      </c>
+      <c r="F4" s="33">
+        <v>324711.00390696019</v>
+      </c>
+      <c r="G4" s="33">
+        <v>114405.56928857259</v>
+      </c>
+      <c r="H4" s="33">
+        <v>425548.54651092086</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.0396484374999999</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1.0039843749999999</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.0003881454467769</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1.0000390052795409</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="4"/>
+      <c r="B5" s="35">
+        <v>20321.686671218999</v>
+      </c>
+      <c r="C5" s="36">
+        <v>14653.429316186241</v>
+      </c>
+      <c r="D5" s="36">
+        <v>22454.243585952503</v>
+      </c>
+      <c r="E5" s="36">
+        <v>21727.084205178642</v>
+      </c>
+      <c r="F5" s="36">
+        <v>86919.085309273054</v>
+      </c>
+      <c r="G5" s="36">
+        <v>15208.53658317422</v>
+      </c>
+      <c r="H5" s="36">
+        <v>38837.619615386277</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.00908203125</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.0009179687500001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.000090599060059</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.000009155273438</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="38">
+        <v>111.3545</v>
+      </c>
+      <c r="C6" s="39">
+        <v>13.7204</v>
+      </c>
+      <c r="D6" s="39">
+        <v>871.77170000000001</v>
+      </c>
+      <c r="E6" s="39">
+        <v>192.30179999999999</v>
+      </c>
+      <c r="F6" s="39">
+        <v>8960.1813999999995</v>
+      </c>
+      <c r="G6" s="39">
+        <v>1448.7623000000001</v>
+      </c>
+      <c r="H6" s="39">
+        <v>154724.18340000001</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.056546</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.0095050000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.002785</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.002524</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0c513644393d52d/^NEdu/2024-2026 NCSU/Sem 2/IP/Projects/ncsu-ip-p1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svrao/Documents/NCSU_Notes/Spring 25/IP/ncsu-ip-p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{FDE51764-D684-4B4F-B379-1521C05A58DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48B0ED8-B96B-4458-A9BC-1A4A835F8FCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63916DA-0878-1D4D-84A4-EE3AD9FC7234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="6200" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,6 +571,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,33 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,52 +908,52 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="10" customWidth="1"/>
-    <col min="10" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="17" width="9.109375" customWidth="1"/>
+    <col min="10" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="23" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1005,32 +1005,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="23">
         <v>9827.463639666219</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="24">
         <v>3817.4951773066332</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="24">
         <v>73611.763668766012</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="24">
         <v>30069.905299915819</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="24">
         <v>324711.00390696019</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="24">
         <v>114405.56928857259</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="24">
         <v>425548.54651092086</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="25">
         <v>0</v>
       </c>
       <c r="J4" s="10">
@@ -1046,32 +1046,32 @@
         <v>1.0000390052795409</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="26">
         <v>20321.686671218999</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="27">
         <v>14653.429316186241</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="27">
         <v>22454.243585952503</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="27">
         <v>21727.084205178642</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="27">
         <v>86919.085309273054</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="27">
         <v>15208.53658317422</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="27">
         <v>38837.619615386277</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="28">
         <v>0</v>
       </c>
       <c r="J5" s="8">
@@ -1087,48 +1087,48 @@
         <v>1.000009155273438</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="29">
         <v>111.3545</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="30">
         <v>13.7204</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="30">
         <v>871.77170000000001</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="30">
         <v>192.30179999999999</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="30">
         <v>8960.1813999999995</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="30">
         <v>1448.7623000000001</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="30">
         <v>154724.18340000001</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="31">
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>1.056546</v>
+        <v>1.056546435</v>
       </c>
       <c r="K6" s="3">
-        <v>1.0095050000000001</v>
+        <v>1.009505675</v>
       </c>
       <c r="L6" s="3">
-        <v>1.002785</v>
+        <v>1.0027853449999999</v>
       </c>
       <c r="M6" s="4">
-        <v>1.002524</v>
+        <v>1.0025241980999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
